--- a/data_impute_project/removed_data/human/combination_3_ABCDF/ABCD/20/seed4/missing_data.xlsx
+++ b/data_impute_project/removed_data/human/combination_3_ABCDF/ABCD/20/seed4/missing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,9 @@
       <c r="B2" t="n">
         <v>-19.7</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>14.9</v>
+      </c>
       <c r="D2" t="n">
         <v>-13.5</v>
       </c>
@@ -494,9 +496,7 @@
       <c r="B3" t="n">
         <v>-19.7</v>
       </c>
-      <c r="C3" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>-14.2</v>
       </c>
@@ -516,9 +516,7 @@
       <c r="B4" t="n">
         <v>-18.7</v>
       </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>-15.4</v>
       </c>
@@ -541,9 +539,7 @@
       <c r="C5" t="n">
         <v>12.3</v>
       </c>
-      <c r="D5" t="n">
-        <v>-14.4</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>-5</v>
       </c>
@@ -566,7 +562,9 @@
       <c r="D6" t="n">
         <v>-14.2</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>-5.7</v>
+      </c>
       <c r="F6" t="n">
         <v>16.43</v>
       </c>
@@ -605,7 +603,9 @@
       <c r="C8" t="n">
         <v>15.5</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>-13.9</v>
+      </c>
       <c r="E8" t="n">
         <v>-6.6</v>
       </c>
@@ -645,7 +645,9 @@
       <c r="C10" t="n">
         <v>11.5</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>-14.7</v>
+      </c>
       <c r="E10" t="n">
         <v>-6.1</v>
       </c>
@@ -662,11 +664,15 @@
       <c r="B11" t="n">
         <v>-20.8</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>11.4</v>
+      </c>
       <c r="D11" t="n">
         <v>-15.5</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>-7.9</v>
+      </c>
       <c r="F11" t="n">
         <v>17.65</v>
       </c>
@@ -683,12 +689,8 @@
       <c r="C12" t="n">
         <v>12.5</v>
       </c>
-      <c r="D12" t="n">
-        <v>-14.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5.3</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>17.45</v>
       </c>
@@ -700,13 +702,13 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>-13.9</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>-5.3</v>
+      </c>
       <c r="F13" t="n">
         <v>17.1</v>
       </c>
@@ -743,7 +745,9 @@
       <c r="C15" t="n">
         <v>12.5</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>-15.2</v>
+      </c>
       <c r="E15" t="n">
         <v>-8.4</v>
       </c>
@@ -786,9 +790,7 @@
       <c r="D17" t="n">
         <v>-14.7</v>
       </c>
-      <c r="E17" t="n">
-        <v>-7.3</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>17.78</v>
       </c>
@@ -803,10 +805,10 @@
       <c r="C18" t="n">
         <v>11.5</v>
       </c>
-      <c r="D18" t="n">
-        <v>-15.2</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>-8.5</v>
+      </c>
       <c r="F18" t="n">
         <v>18.35</v>
       </c>
@@ -823,12 +825,8 @@
       <c r="C19" t="n">
         <v>13.2</v>
       </c>
-      <c r="D19" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-6.5</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>17.81</v>
       </c>
@@ -862,7 +860,9 @@
       <c r="B21" t="n">
         <v>-18.9</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>12.7</v>
+      </c>
       <c r="D21" t="n">
         <v>-14.3</v>
       </c>
@@ -930,9 +930,7 @@
       <c r="D24" t="n">
         <v>-13.9</v>
       </c>
-      <c r="E24" t="n">
-        <v>-8.1</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
         <v>16.78</v>
       </c>
@@ -946,11 +944,13 @@
       <c r="B25" t="n">
         <v>-19.5</v>
       </c>
-      <c r="C25" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-7.1</v>
+      </c>
       <c r="F25" t="n">
         <v>16.6</v>
       </c>
@@ -958,206 +958,162 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RM 232</t>
+          <t>SC 5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D26" t="n">
-        <v>-15.6</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>-13.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SC 5</t>
+          <t>SC 101</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>-13.8</v>
+        <v>-14.6</v>
       </c>
       <c r="E27" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F27" t="n">
-        <v>17.38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SC 92</t>
+          <t>SC 105</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-17.2</v>
+        <v>-19.6</v>
       </c>
       <c r="C28" t="n">
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
       <c r="D28" t="n">
-        <v>-14</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>-13.7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-5.9</v>
+      </c>
       <c r="F28" t="n">
-        <v>17.22</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SC 101</t>
+          <t>SC 119</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-10</v>
+        <v>-6.8</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SC 105</t>
+          <t>SC 120</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-19.6</v>
+        <v>-19.7</v>
       </c>
       <c r="C30" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="D30" t="n">
-        <v>-13.7</v>
+        <v>-13.6</v>
       </c>
       <c r="E30" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="F30" t="n">
-        <v>17.44</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SC 119</t>
+          <t>SC 132</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-19.5</v>
+        <v>-18.8</v>
       </c>
       <c r="C31" t="n">
-        <v>11.2</v>
+        <v>15.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-13</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-6.8</v>
-      </c>
+        <v>-13.7</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>18.06</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SC 120</t>
+          <t>SC 193</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-19.7</v>
+        <v>-19.9</v>
       </c>
       <c r="C32" t="n">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="D32" t="n">
-        <v>-13.6</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-5.7</v>
-      </c>
+        <v>-14.7</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>16.89</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SC 132</t>
+          <t>SC 232</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-18.8</v>
+        <v>-19.5</v>
       </c>
       <c r="C33" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-13.7</v>
-      </c>
+        <v>10.4</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-8.1</v>
+        <v>-10.7</v>
       </c>
       <c r="F33" t="n">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SC 193</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-14.7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17.39</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SC 232</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>-14.1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="F35" t="n">
         <v>17.53</v>
       </c>
     </row>
